--- a/Relatorio/Resultados.xlsx
+++ b/Relatorio/Resultados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\gesthiper-java\Relatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Tempos Queries" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t># Querie</t>
   </si>
@@ -87,14 +87,17 @@
   <si>
     <t>Ficheiros</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -605,31 +608,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,6 +650,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,128 +768,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,6 +801,748 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempo resposta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> queries</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tempos Queries'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compras.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tempos Queries'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compras1.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>518.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tempos Queries'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compras3.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tempos Queries'!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>717.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="242154880"/>
+        <c:axId val="242154320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="242154880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>#Querie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242154320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="242154320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (milisegundos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242154880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1019,11 +1764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256231520"/>
-        <c:axId val="256233200"/>
+        <c:axId val="197136256"/>
+        <c:axId val="197136816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256231520"/>
+        <c:axId val="197136256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1867,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256233200"/>
+        <c:crossAx val="197136816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,7 +1875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256233200"/>
+        <c:axId val="197136816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1982,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256231520"/>
+        <c:crossAx val="197136256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,7 +2031,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1301,7 +2046,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1575,11 +2319,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="248885024"/>
-        <c:axId val="248887264"/>
+        <c:axId val="197140176"/>
+        <c:axId val="197140736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248885024"/>
+        <c:axId val="197140176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +2366,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248887264"/>
+        <c:crossAx val="197140736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1630,7 +2374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248887264"/>
+        <c:axId val="197140736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +2425,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248885024"/>
+        <c:crossAx val="197140176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,7 +2439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,6 +2585,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2346,7 +3129,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2550,6 +3333,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2851,6 +4137,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2885,7 +4206,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3185,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,26 +4516,27 @@
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="F1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3230,7 +4552,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>1</v>
@@ -3258,15 +4580,15 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="16">
         <f>B3*1000</f>
         <v>58.8</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="17">
         <f t="shared" ref="H3:I3" si="0">C3*1000</f>
         <v>45.400000000000006</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3287,15 +4609,15 @@
       <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G14" si="1">B4*1000</f>
         <v>0.4</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H14" si="2">C4*1000</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="21">
         <f t="shared" ref="I4:I14" si="3">D4*1000</f>
         <v>0.5</v>
       </c>
@@ -3316,15 +4638,15 @@
       <c r="F5" s="14">
         <v>3</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <f t="shared" si="2"/>
         <v>54.9</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3344,13 +4666,13 @@
       <c r="F6" s="14">
         <v>4</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3370,15 +4692,15 @@
       <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="20">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -3399,15 +4721,15 @@
       <c r="F8" s="14">
         <v>6</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
@@ -3428,15 +4750,15 @@
       <c r="F9" s="14">
         <v>7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -3457,15 +4779,15 @@
       <c r="F10" s="14">
         <v>8</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <f t="shared" si="3"/>
         <v>8.3999999999999991E-2</v>
       </c>
@@ -3486,15 +4808,15 @@
       <c r="F11" s="14">
         <v>9</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="21">
         <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
@@ -3515,15 +4837,15 @@
       <c r="F12" s="14">
         <v>10</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>345.2</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <f t="shared" si="2"/>
         <v>518.20000000000005</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>717.40000000000009</v>
       </c>
@@ -3547,15 +4869,15 @@
       <c r="F13" s="14">
         <v>11</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>32.200000000000003</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="20">
         <f t="shared" si="2"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <f t="shared" si="3"/>
         <v>35.1</v>
       </c>
@@ -3576,15 +4898,15 @@
       <c r="F14" s="15">
         <v>12</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <f t="shared" si="1"/>
         <v>142.80000000000001</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="23">
         <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="24">
         <f t="shared" si="3"/>
         <v>151.9</v>
       </c>
@@ -3631,6 +4953,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3639,7 +4962,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,10 +4972,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -3663,42 +4986,42 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="28">
         <v>0.16196065600000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="29">
         <v>4.0350767300000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="29">
         <v>16.175266549</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="29">
         <v>34.758988680000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="30">
         <v>105.32821303</v>
       </c>
     </row>
@@ -3715,93 +5038,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="39" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="13.5703125" style="32" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="37">
         <v>0.116616</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="38">
         <v>0.38851599999999997</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="39">
         <v>0.84062300000000001</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="40">
         <v>0.80169400000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="41">
         <v>0.11623699999999999</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="42">
         <v>0.476298</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="43">
         <v>0.93344400000000005</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="44">
         <v>1.243196</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="45">
         <v>0.25923299999999999</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="46">
         <v>1.205411</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="47">
         <v>2.544896</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="48">
         <v>3.6374219999999999</v>
       </c>
     </row>

--- a/Relatorio/Resultados.xlsx
+++ b/Relatorio/Resultados.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tempos Queries" sheetId="1" r:id="rId1"/>
-    <sheet name="Tempos Leitura" sheetId="2" r:id="rId2"/>
-    <sheet name="Testes Classes Leitura" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Tempos Leitura" sheetId="2" r:id="rId3"/>
+    <sheet name="Testes Classes Leitura" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t># Querie</t>
   </si>
@@ -90,6 +91,42 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>Tempos Leitura (segs)</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Querie</t>
+  </si>
+  <si>
+    <t>(0.3260, 0.2563)</t>
+  </si>
+  <si>
+    <t>(0.4420,0.0762)</t>
+  </si>
+  <si>
+    <t>(0.4011, 0.0809)</t>
+  </si>
+  <si>
+    <t>Tree+HashMap</t>
+  </si>
+  <si>
+    <t>Tempos Querie 10 (segs)</t>
+  </si>
+  <si>
+    <t>Obter Lista Produtos</t>
+  </si>
+  <si>
+    <t>Array nº Clientes únicos</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +160,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -599,11 +660,250 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,6 +1059,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,6 +1084,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1699,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1238,11 +1708,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="242154880"/>
-        <c:axId val="242154320"/>
+        <c:axId val="206012544"/>
+        <c:axId val="206013104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242154880"/>
+        <c:axId val="206012544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1811,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242154320"/>
+        <c:crossAx val="206013104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242154320"/>
+        <c:axId val="206013104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1931,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242154880"/>
+        <c:crossAx val="206012544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1576,6 +2046,1312 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempos leitura com diferentes estruturas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree+HashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FichClientes.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FichProdutos.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compras1.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16196065600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0350767300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.758988680000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FichClientes.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FichProdutos.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compras1.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16052788100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5688185570000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.736266014000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$3:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FichClientes.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FichProdutos.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compras1.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.168916442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.777111702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.660374851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="348924320"/>
+        <c:axId val="348923760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="348924320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Ficheiro</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>s Input</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348923760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348923760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348924320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempos das</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Queries com diferentes estruturas</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree+HashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>518.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>582.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>143.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashMap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>482.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162.70000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="343170768"/>
+        <c:axId val="343172448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="343170768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t># Querie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343172448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343172448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343170768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Tempos Leitura Ficheiros</a:t>
             </a:r>
@@ -1764,11 +3540,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="197136256"/>
-        <c:axId val="197136816"/>
+        <c:axId val="208792592"/>
+        <c:axId val="208793152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197136256"/>
+        <c:axId val="208792592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +3643,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197136816"/>
+        <c:crossAx val="208793152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197136816"/>
+        <c:axId val="208793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +3758,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197136256"/>
+        <c:crossAx val="208792592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2031,7 +3807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2046,6 +3822,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Comparação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Scanner vs. BufferedReader</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2087,7 +3894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Testes Classes Leitura'!$A$3</c:f>
+              <c:f>'Testes Classes Leitura'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2108,83 +3915,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Testes Classes Leitura'!$B$1:$E$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>No Parse</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Parse</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>No Parse</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Parse</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Buffered Reader</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Scanner</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Testes Classes Leitura'!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.116616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38851599999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84062300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80169400000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Testes Classes Leitura'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compras1.txt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Testes Classes Leitura'!$B$1:$E$2</c:f>
+              <c:f>'Testes Classes Leitura'!$B$2:$E$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -2219,38 +3950,38 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11623699999999999</c:v>
+                  <c:v>0.116616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.476298</c:v>
+                  <c:v>0.38851599999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93344400000000005</c:v>
+                  <c:v>0.84062300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.243196</c:v>
+                  <c:v>0.80169400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Testes Classes Leitura'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Compras3.txt</c:v>
+                  <c:v>Compras1.txt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2260,7 +3991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Testes Classes Leitura'!$B$1:$E$2</c:f>
+              <c:f>'Testes Classes Leitura'!$B$2:$E$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -2295,6 +4026,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.11623699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.476298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93344400000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.243196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Testes Classes Leitura'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compras3.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Testes Classes Leitura'!$B$2:$E$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>No Parse</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Parse</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>No Parse</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Parse</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Buffered Reader</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scanner</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testes Classes Leitura'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>0.25923299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2319,16 +4126,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="197140176"/>
-        <c:axId val="197140736"/>
+        <c:axId val="208796512"/>
+        <c:axId val="208797072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197140176"/>
+        <c:axId val="208796512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Classes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2366,7 +4229,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197140736"/>
+        <c:crossAx val="208797072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2374,7 +4237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197140736"/>
+        <c:axId val="208797072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,6 +4257,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> (segs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2425,7 +4349,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197140176"/>
+        <c:crossAx val="208796512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2439,6 +4363,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2625,6 +4550,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3129,6 +5134,511 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3631,7 +6141,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4175,6 +7188,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4206,20 +7284,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4506,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,18 +7601,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
@@ -4959,10 +8037,610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="16.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="32"/>
+    <col min="7" max="7" width="15.85546875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="32" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="32"/>
+    <col min="11" max="11" width="18.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="32" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="32"/>
+    <col min="16" max="16" width="23.5703125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="32" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="K1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="56"/>
+      <c r="P1" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="C3" s="82">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D3" s="83">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="F3" s="68">
+        <v>1</v>
+      </c>
+      <c r="G3" s="86">
+        <f>B3*1000</f>
+        <v>45.400000000000006</v>
+      </c>
+      <c r="H3" s="86">
+        <f t="shared" ref="H3:I3" si="0">C3*1000</f>
+        <v>39.5</v>
+      </c>
+      <c r="I3" s="87">
+        <f t="shared" si="0"/>
+        <v>46.1</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="98">
+        <v>0.16196065600000001</v>
+      </c>
+      <c r="M3" s="99">
+        <v>0.16052788100000001</v>
+      </c>
+      <c r="N3" s="100">
+        <v>0.168916442</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="95">
+        <v>0.442</v>
+      </c>
+      <c r="R3" s="96">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="S3" s="97">
+        <v>0.40110000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C4" s="73">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="75">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="69">
+        <v>2</v>
+      </c>
+      <c r="G4" s="88">
+        <f t="shared" ref="G4:G14" si="1">B4*1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="88">
+        <f t="shared" ref="H4:H14" si="2">C4*1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="89">
+        <f t="shared" ref="I4:I14" si="3">D4*1000</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="101">
+        <v>4.0350767300000001</v>
+      </c>
+      <c r="M4" s="102">
+        <v>4.5688185570000002</v>
+      </c>
+      <c r="N4" s="103">
+        <v>3.777111702</v>
+      </c>
+      <c r="P4" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="110">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="R4" s="112">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="S4" s="111">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69">
+        <v>3</v>
+      </c>
+      <c r="B5" s="74">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="C5" s="73">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="D5" s="75">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="F5" s="69">
+        <v>3</v>
+      </c>
+      <c r="G5" s="88">
+        <f t="shared" si="1"/>
+        <v>54.9</v>
+      </c>
+      <c r="H5" s="88">
+        <f t="shared" si="2"/>
+        <v>54.699999999999996</v>
+      </c>
+      <c r="I5" s="89">
+        <f t="shared" si="3"/>
+        <v>43.4</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="104">
+        <v>34.758988680000002</v>
+      </c>
+      <c r="M5" s="105">
+        <v>38.736266014000002</v>
+      </c>
+      <c r="N5" s="106">
+        <v>37.660374851</v>
+      </c>
+      <c r="P5" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="115">
+        <f>Q3+Q4</f>
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="R5" s="116">
+        <f t="shared" ref="R5:S5" si="4">R3+R4</f>
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="S5" s="117">
+        <f t="shared" si="4"/>
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>4</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="69">
+        <v>4</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>5</v>
+      </c>
+      <c r="B7" s="74">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C7" s="73">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="69">
+        <v>5</v>
+      </c>
+      <c r="G7" s="88">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="88">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="89">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>6</v>
+      </c>
+      <c r="B8" s="74">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C8" s="73">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F8" s="69">
+        <v>6</v>
+      </c>
+      <c r="G8" s="88">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8" s="88">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="I8" s="89">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>7</v>
+      </c>
+      <c r="B9" s="74">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C9" s="73">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D9" s="75">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F9" s="69">
+        <v>7</v>
+      </c>
+      <c r="G9" s="88">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="88">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="89">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>8</v>
+      </c>
+      <c r="B10" s="74">
+        <v>5.1E-5</v>
+      </c>
+      <c r="C10" s="73">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D10" s="75">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F10" s="69">
+        <v>8</v>
+      </c>
+      <c r="G10" s="88">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H10" s="88">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="89">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>9</v>
+      </c>
+      <c r="B11" s="74">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C11" s="73">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D11" s="75">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F11" s="69">
+        <v>9</v>
+      </c>
+      <c r="G11" s="88">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="88">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I11" s="89">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>10</v>
+      </c>
+      <c r="B12" s="74">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="C12" s="73">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="D12" s="75">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F12" s="69">
+        <v>10</v>
+      </c>
+      <c r="G12" s="88">
+        <f t="shared" si="1"/>
+        <v>518.20000000000005</v>
+      </c>
+      <c r="H12" s="88">
+        <f t="shared" si="2"/>
+        <v>582.30000000000007</v>
+      </c>
+      <c r="I12" s="89">
+        <f t="shared" si="3"/>
+        <v>482.09999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>11</v>
+      </c>
+      <c r="B13" s="74">
+        <v>3.27E-2</v>
+      </c>
+      <c r="C13" s="73">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D13" s="75">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F13" s="69">
+        <v>11</v>
+      </c>
+      <c r="G13" s="88">
+        <f t="shared" si="1"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H13" s="88">
+        <f t="shared" si="2"/>
+        <v>24.7</v>
+      </c>
+      <c r="I13" s="89">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="70">
+        <v>12</v>
+      </c>
+      <c r="B14" s="77">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="C14" s="78">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="D14" s="79">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="F14" s="70">
+        <v>12</v>
+      </c>
+      <c r="G14" s="90">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+      <c r="H14" s="90">
+        <f t="shared" si="2"/>
+        <v>143.30000000000001</v>
+      </c>
+      <c r="I14" s="91">
+        <f t="shared" si="3"/>
+        <v>162.70000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B14 C6:D6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:I14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4972,10 +8650,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -5034,12 +8712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5049,91 +8727,101 @@
     <col min="6" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="60"/>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0.116616</v>
-      </c>
-      <c r="C3" s="38">
-        <v>0.38851599999999997</v>
-      </c>
-      <c r="D3" s="39">
-        <v>0.84062300000000001</v>
-      </c>
-      <c r="E3" s="40">
-        <v>0.80169400000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0.116616</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.38851599999999997</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.84062300000000001</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.80169400000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B5" s="41">
         <v>0.11623699999999999</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C5" s="42">
         <v>0.476298</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D5" s="43">
         <v>0.93344400000000005</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E5" s="44">
         <v>1.243196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B6" s="45">
         <v>0.25923299999999999</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C6" s="46">
         <v>1.205411</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D6" s="47">
         <v>2.544896</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E6" s="48">
         <v>3.6374219999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>